--- a/output/excelOut_datapoints.xlsx
+++ b/output/excelOut_datapoints.xlsx
@@ -114,7 +114,7 @@
         <v>660.0</v>
       </c>
       <c r="C2" t="n">
-        <v>20.0</v>
+        <v>44.0</v>
       </c>
       <c r="D2" t="n">
         <v>394.0</v>
@@ -123,7 +123,7 @@
         <v>660.0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -146,7 +146,7 @@
         <v>168.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -160,7 +160,7 @@
         <v>960.0</v>
       </c>
       <c r="C4" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="D4" t="n">
         <v>155.0</v>
@@ -186,13 +186,13 @@
         <v>4.0</v>
       </c>
       <c r="D5" t="n">
-        <v>466.0</v>
+        <v>465.0</v>
       </c>
       <c r="E5" t="n">
         <v>1848.0</v>
       </c>
       <c r="F5" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="G5" t="n">
         <v>155.0</v>
@@ -206,19 +206,19 @@
         <v>5760.0</v>
       </c>
       <c r="C6" t="n">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="D6" t="n">
-        <v>1708.0</v>
+        <v>1707.0</v>
       </c>
       <c r="E6" t="n">
         <v>5760.0</v>
       </c>
       <c r="F6" t="n">
-        <v>8.0</v>
+        <v>19.0</v>
       </c>
       <c r="G6" t="n">
-        <v>932.0</v>
+        <v>931.0</v>
       </c>
     </row>
     <row r="7">
@@ -229,16 +229,16 @@
         <v>7680.0</v>
       </c>
       <c r="C7" t="n">
-        <v>22.0</v>
+        <v>30.0</v>
       </c>
       <c r="D7" t="n">
-        <v>3807.0</v>
+        <v>3806.0</v>
       </c>
       <c r="E7" t="n">
         <v>7680.0</v>
       </c>
       <c r="F7" t="n">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="G7" t="n">
         <v>2099.0</v>
@@ -252,7 +252,7 @@
         <v>5244.0</v>
       </c>
       <c r="C8" t="n">
-        <v>95.0</v>
+        <v>42.0</v>
       </c>
       <c r="D8" t="n">
         <v>6604.0</v>
@@ -261,10 +261,10 @@
         <v>5244.0</v>
       </c>
       <c r="F8" t="n">
-        <v>19.0</v>
+        <v>31.0</v>
       </c>
       <c r="G8" t="n">
-        <v>3875.0</v>
+        <v>3874.0</v>
       </c>
     </row>
     <row r="9">
@@ -275,19 +275,19 @@
         <v>7728.0</v>
       </c>
       <c r="C9" t="n">
-        <v>34.0</v>
+        <v>49.0</v>
       </c>
       <c r="D9" t="n">
-        <v>6651.0</v>
+        <v>6587.0</v>
       </c>
       <c r="E9" t="n">
         <v>7728.0</v>
       </c>
       <c r="F9" t="n">
-        <v>9.0</v>
+        <v>30.0</v>
       </c>
       <c r="G9" t="n">
-        <v>8574.0</v>
+        <v>8573.0</v>
       </c>
     </row>
     <row r="10">
@@ -298,7 +298,7 @@
         <v>11136.0</v>
       </c>
       <c r="C10" t="n">
-        <v>35.0</v>
+        <v>86.0</v>
       </c>
       <c r="D10" t="n">
         <v>5218.0</v>
@@ -307,7 +307,7 @@
         <v>11136.0</v>
       </c>
       <c r="F10" t="n">
-        <v>43.0</v>
+        <v>62.0</v>
       </c>
       <c r="G10" t="n">
         <v>2586.0</v>
@@ -321,19 +321,19 @@
         <v>19116.0</v>
       </c>
       <c r="C11" t="n">
-        <v>49.0</v>
+        <v>101.0</v>
       </c>
       <c r="D11" t="n">
-        <v>2598.0</v>
+        <v>2557.0</v>
       </c>
       <c r="E11" t="n">
         <v>19116.0</v>
       </c>
       <c r="F11" t="n">
-        <v>41.0</v>
+        <v>43.0</v>
       </c>
       <c r="G11" t="n">
-        <v>12525.0</v>
+        <v>12384.0</v>
       </c>
     </row>
     <row r="12">
@@ -344,19 +344,19 @@
         <v>27648.0</v>
       </c>
       <c r="C12" t="n">
-        <v>128.0</v>
+        <v>104.0</v>
       </c>
       <c r="D12" t="n">
-        <v>44057.0</v>
+        <v>11630.0</v>
       </c>
       <c r="E12" t="n">
         <v>27648.0</v>
       </c>
       <c r="F12" t="n">
-        <v>67.0</v>
+        <v>41.0</v>
       </c>
       <c r="G12" t="n">
-        <v>8793.0</v>
+        <v>17858.0</v>
       </c>
     </row>
     <row r="13">
@@ -367,19 +367,19 @@
         <v>32748.0</v>
       </c>
       <c r="C13" t="n">
-        <v>168.0</v>
+        <v>115.0</v>
       </c>
       <c r="D13" t="n">
-        <v>15533.0</v>
+        <v>37807.0</v>
       </c>
       <c r="E13" t="n">
         <v>32748.0</v>
       </c>
       <c r="F13" t="n">
-        <v>151.0</v>
+        <v>148.0</v>
       </c>
       <c r="G13" t="n">
-        <v>17820.0</v>
+        <v>19909.0</v>
       </c>
     </row>
     <row r="14">
@@ -390,19 +390,19 @@
         <v>32352.0</v>
       </c>
       <c r="C14" t="n">
-        <v>241.0</v>
+        <v>230.0</v>
       </c>
       <c r="D14" t="n">
-        <v>50780.0</v>
+        <v>5717.0</v>
       </c>
       <c r="E14" t="n">
         <v>32352.0</v>
       </c>
       <c r="F14" t="n">
-        <v>59.0</v>
+        <v>74.0</v>
       </c>
       <c r="G14" t="n">
-        <v>55736.0</v>
+        <v>49177.0</v>
       </c>
     </row>
     <row r="15">
@@ -413,19 +413,19 @@
         <v>61440.0</v>
       </c>
       <c r="C15" t="n">
-        <v>128.0</v>
+        <v>177.0</v>
       </c>
       <c r="D15" t="n">
-        <v>86028.0</v>
+        <v>4239.0</v>
       </c>
       <c r="E15" t="n">
         <v>61440.0</v>
       </c>
       <c r="F15" t="n">
-        <v>136.0</v>
+        <v>102.0</v>
       </c>
       <c r="G15" t="n">
-        <v>55018.0</v>
+        <v>19840.0</v>
       </c>
     </row>
     <row r="16">
@@ -436,19 +436,19 @@
         <v>29532.0</v>
       </c>
       <c r="C16" t="n">
-        <v>250.0</v>
+        <v>239.0</v>
       </c>
       <c r="D16" t="n">
-        <v>77727.0</v>
+        <v>78013.0</v>
       </c>
       <c r="E16" t="n">
         <v>29532.0</v>
       </c>
       <c r="F16" t="n">
-        <v>130.0</v>
+        <v>122.0</v>
       </c>
       <c r="G16" t="n">
-        <v>49147.0</v>
+        <v>44952.0</v>
       </c>
     </row>
     <row r="17">
@@ -459,19 +459,19 @@
         <v>46320.0</v>
       </c>
       <c r="C17" t="n">
-        <v>289.0</v>
+        <v>269.0</v>
       </c>
       <c r="D17" t="n">
-        <v>43614.0</v>
+        <v>5809.0</v>
       </c>
       <c r="E17" t="n">
         <v>46320.0</v>
       </c>
       <c r="F17" t="n">
-        <v>167.0</v>
+        <v>158.0</v>
       </c>
       <c r="G17" t="n">
-        <v>95643.0</v>
+        <v>95564.0</v>
       </c>
     </row>
   </sheetData>

--- a/output/excelOut_datapoints.xlsx
+++ b/output/excelOut_datapoints.xlsx
@@ -114,16 +114,16 @@
         <v>660.0</v>
       </c>
       <c r="C2" t="n">
-        <v>44.0</v>
+        <v>15.0</v>
       </c>
       <c r="D2" t="n">
-        <v>394.0</v>
+        <v>393.0</v>
       </c>
       <c r="E2" t="n">
         <v>660.0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -146,7 +146,7 @@
         <v>168.0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G3" t="n">
         <v>0.0</v>
@@ -160,7 +160,7 @@
         <v>960.0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D4" t="n">
         <v>155.0</v>
@@ -169,7 +169,7 @@
         <v>960.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -183,10 +183,10 @@
         <v>1848.0</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>31.0</v>
       </c>
       <c r="D5" t="n">
-        <v>465.0</v>
+        <v>466.0</v>
       </c>
       <c r="E5" t="n">
         <v>1848.0</v>
@@ -206,16 +206,16 @@
         <v>5760.0</v>
       </c>
       <c r="C6" t="n">
-        <v>18.0</v>
+        <v>26.0</v>
       </c>
       <c r="D6" t="n">
-        <v>1707.0</v>
+        <v>1733.0</v>
       </c>
       <c r="E6" t="n">
         <v>5760.0</v>
       </c>
       <c r="F6" t="n">
-        <v>19.0</v>
+        <v>8.0</v>
       </c>
       <c r="G6" t="n">
         <v>931.0</v>
@@ -229,7 +229,7 @@
         <v>7680.0</v>
       </c>
       <c r="C7" t="n">
-        <v>30.0</v>
+        <v>24.0</v>
       </c>
       <c r="D7" t="n">
         <v>3806.0</v>
@@ -238,7 +238,7 @@
         <v>7680.0</v>
       </c>
       <c r="F7" t="n">
-        <v>14.0</v>
+        <v>9.0</v>
       </c>
       <c r="G7" t="n">
         <v>2099.0</v>
@@ -252,7 +252,7 @@
         <v>5244.0</v>
       </c>
       <c r="C8" t="n">
-        <v>42.0</v>
+        <v>29.0</v>
       </c>
       <c r="D8" t="n">
         <v>6604.0</v>
@@ -261,7 +261,7 @@
         <v>5244.0</v>
       </c>
       <c r="F8" t="n">
-        <v>31.0</v>
+        <v>28.0</v>
       </c>
       <c r="G8" t="n">
         <v>3874.0</v>
@@ -275,16 +275,16 @@
         <v>7728.0</v>
       </c>
       <c r="C9" t="n">
-        <v>49.0</v>
+        <v>58.0</v>
       </c>
       <c r="D9" t="n">
-        <v>6587.0</v>
+        <v>6509.0</v>
       </c>
       <c r="E9" t="n">
         <v>7728.0</v>
       </c>
       <c r="F9" t="n">
-        <v>30.0</v>
+        <v>14.0</v>
       </c>
       <c r="G9" t="n">
         <v>8573.0</v>
@@ -298,16 +298,16 @@
         <v>11136.0</v>
       </c>
       <c r="C10" t="n">
-        <v>86.0</v>
+        <v>29.0</v>
       </c>
       <c r="D10" t="n">
-        <v>5218.0</v>
+        <v>5344.0</v>
       </c>
       <c r="E10" t="n">
         <v>11136.0</v>
       </c>
       <c r="F10" t="n">
-        <v>62.0</v>
+        <v>30.0</v>
       </c>
       <c r="G10" t="n">
         <v>2586.0</v>
@@ -321,19 +321,19 @@
         <v>19116.0</v>
       </c>
       <c r="C11" t="n">
-        <v>101.0</v>
+        <v>34.0</v>
       </c>
       <c r="D11" t="n">
-        <v>2557.0</v>
+        <v>2598.0</v>
       </c>
       <c r="E11" t="n">
         <v>19116.0</v>
       </c>
       <c r="F11" t="n">
-        <v>43.0</v>
+        <v>21.0</v>
       </c>
       <c r="G11" t="n">
-        <v>12384.0</v>
+        <v>12382.0</v>
       </c>
     </row>
     <row r="12">
@@ -344,7 +344,7 @@
         <v>27648.0</v>
       </c>
       <c r="C12" t="n">
-        <v>104.0</v>
+        <v>51.0</v>
       </c>
       <c r="D12" t="n">
         <v>11630.0</v>
@@ -353,7 +353,7 @@
         <v>27648.0</v>
       </c>
       <c r="F12" t="n">
-        <v>41.0</v>
+        <v>77.0</v>
       </c>
       <c r="G12" t="n">
         <v>17858.0</v>
@@ -367,16 +367,16 @@
         <v>32748.0</v>
       </c>
       <c r="C13" t="n">
-        <v>115.0</v>
+        <v>128.0</v>
       </c>
       <c r="D13" t="n">
-        <v>37807.0</v>
+        <v>37811.0</v>
       </c>
       <c r="E13" t="n">
         <v>32748.0</v>
       </c>
       <c r="F13" t="n">
-        <v>148.0</v>
+        <v>93.0</v>
       </c>
       <c r="G13" t="n">
         <v>19909.0</v>
@@ -390,19 +390,19 @@
         <v>32352.0</v>
       </c>
       <c r="C14" t="n">
-        <v>230.0</v>
+        <v>243.0</v>
       </c>
       <c r="D14" t="n">
-        <v>5717.0</v>
+        <v>5667.0</v>
       </c>
       <c r="E14" t="n">
         <v>32352.0</v>
       </c>
       <c r="F14" t="n">
-        <v>74.0</v>
+        <v>132.0</v>
       </c>
       <c r="G14" t="n">
-        <v>49177.0</v>
+        <v>57722.0</v>
       </c>
     </row>
     <row r="15">
@@ -413,19 +413,19 @@
         <v>61440.0</v>
       </c>
       <c r="C15" t="n">
-        <v>177.0</v>
+        <v>147.0</v>
       </c>
       <c r="D15" t="n">
-        <v>4239.0</v>
+        <v>65041.0</v>
       </c>
       <c r="E15" t="n">
         <v>61440.0</v>
       </c>
       <c r="F15" t="n">
-        <v>102.0</v>
+        <v>97.0</v>
       </c>
       <c r="G15" t="n">
-        <v>19840.0</v>
+        <v>25914.0</v>
       </c>
     </row>
     <row r="16">
@@ -436,19 +436,19 @@
         <v>29532.0</v>
       </c>
       <c r="C16" t="n">
-        <v>239.0</v>
+        <v>267.0</v>
       </c>
       <c r="D16" t="n">
-        <v>78013.0</v>
+        <v>36293.0</v>
       </c>
       <c r="E16" t="n">
         <v>29532.0</v>
       </c>
       <c r="F16" t="n">
-        <v>122.0</v>
+        <v>100.0</v>
       </c>
       <c r="G16" t="n">
-        <v>44952.0</v>
+        <v>55220.0</v>
       </c>
     </row>
     <row r="17">
@@ -459,19 +459,19 @@
         <v>46320.0</v>
       </c>
       <c r="C17" t="n">
-        <v>269.0</v>
+        <v>284.0</v>
       </c>
       <c r="D17" t="n">
-        <v>5809.0</v>
+        <v>38848.0</v>
       </c>
       <c r="E17" t="n">
         <v>46320.0</v>
       </c>
       <c r="F17" t="n">
-        <v>158.0</v>
+        <v>163.0</v>
       </c>
       <c r="G17" t="n">
-        <v>95564.0</v>
+        <v>47000.0</v>
       </c>
     </row>
   </sheetData>

--- a/output/excelOut_datapoints.xlsx
+++ b/output/excelOut_datapoints.xlsx
@@ -114,7 +114,7 @@
         <v>660.0</v>
       </c>
       <c r="C2" t="n">
-        <v>15.0</v>
+        <v>22.0</v>
       </c>
       <c r="D2" t="n">
         <v>393.0</v>
@@ -123,7 +123,7 @@
         <v>660.0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G2" t="n">
         <v>0.0</v>
@@ -160,16 +160,16 @@
         <v>960.0</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="D4" t="n">
-        <v>155.0</v>
+        <v>156.0</v>
       </c>
       <c r="E4" t="n">
         <v>960.0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G4" t="n">
         <v>0.0</v>
@@ -183,7 +183,7 @@
         <v>1848.0</v>
       </c>
       <c r="C5" t="n">
-        <v>31.0</v>
+        <v>4.0</v>
       </c>
       <c r="D5" t="n">
         <v>466.0</v>
@@ -192,7 +192,7 @@
         <v>1848.0</v>
       </c>
       <c r="F5" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G5" t="n">
         <v>155.0</v>
@@ -206,16 +206,16 @@
         <v>5760.0</v>
       </c>
       <c r="C6" t="n">
-        <v>26.0</v>
+        <v>13.0</v>
       </c>
       <c r="D6" t="n">
-        <v>1733.0</v>
+        <v>1707.0</v>
       </c>
       <c r="E6" t="n">
         <v>5760.0</v>
       </c>
       <c r="F6" t="n">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="G6" t="n">
         <v>931.0</v>
@@ -229,7 +229,7 @@
         <v>7680.0</v>
       </c>
       <c r="C7" t="n">
-        <v>24.0</v>
+        <v>19.0</v>
       </c>
       <c r="D7" t="n">
         <v>3806.0</v>
@@ -238,7 +238,7 @@
         <v>7680.0</v>
       </c>
       <c r="F7" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="G7" t="n">
         <v>2099.0</v>
@@ -252,19 +252,19 @@
         <v>5244.0</v>
       </c>
       <c r="C8" t="n">
-        <v>29.0</v>
+        <v>48.0</v>
       </c>
       <c r="D8" t="n">
-        <v>6604.0</v>
+        <v>7044.0</v>
       </c>
       <c r="E8" t="n">
         <v>5244.0</v>
       </c>
       <c r="F8" t="n">
-        <v>28.0</v>
+        <v>21.0</v>
       </c>
       <c r="G8" t="n">
-        <v>3874.0</v>
+        <v>3828.0</v>
       </c>
     </row>
     <row r="9">
@@ -275,19 +275,19 @@
         <v>7728.0</v>
       </c>
       <c r="C9" t="n">
-        <v>58.0</v>
+        <v>63.0</v>
       </c>
       <c r="D9" t="n">
-        <v>6509.0</v>
+        <v>6619.0</v>
       </c>
       <c r="E9" t="n">
         <v>7728.0</v>
       </c>
       <c r="F9" t="n">
-        <v>14.0</v>
+        <v>38.0</v>
       </c>
       <c r="G9" t="n">
-        <v>8573.0</v>
+        <v>8574.0</v>
       </c>
     </row>
     <row r="10">
@@ -298,16 +298,16 @@
         <v>11136.0</v>
       </c>
       <c r="C10" t="n">
-        <v>29.0</v>
+        <v>92.0</v>
       </c>
       <c r="D10" t="n">
-        <v>5344.0</v>
+        <v>5215.0</v>
       </c>
       <c r="E10" t="n">
         <v>11136.0</v>
       </c>
       <c r="F10" t="n">
-        <v>30.0</v>
+        <v>22.0</v>
       </c>
       <c r="G10" t="n">
         <v>2586.0</v>
@@ -321,19 +321,19 @@
         <v>19116.0</v>
       </c>
       <c r="C11" t="n">
-        <v>34.0</v>
+        <v>74.0</v>
       </c>
       <c r="D11" t="n">
-        <v>2598.0</v>
+        <v>30473.0</v>
       </c>
       <c r="E11" t="n">
         <v>19116.0</v>
       </c>
       <c r="F11" t="n">
-        <v>21.0</v>
+        <v>48.0</v>
       </c>
       <c r="G11" t="n">
-        <v>12382.0</v>
+        <v>3470.0</v>
       </c>
     </row>
     <row r="12">
@@ -344,19 +344,19 @@
         <v>27648.0</v>
       </c>
       <c r="C12" t="n">
-        <v>51.0</v>
+        <v>68.0</v>
       </c>
       <c r="D12" t="n">
-        <v>11630.0</v>
+        <v>33611.0</v>
       </c>
       <c r="E12" t="n">
         <v>27648.0</v>
       </c>
       <c r="F12" t="n">
-        <v>77.0</v>
+        <v>28.0</v>
       </c>
       <c r="G12" t="n">
-        <v>17858.0</v>
+        <v>8797.0</v>
       </c>
     </row>
     <row r="13">
@@ -367,19 +367,19 @@
         <v>32748.0</v>
       </c>
       <c r="C13" t="n">
-        <v>128.0</v>
+        <v>107.0</v>
       </c>
       <c r="D13" t="n">
-        <v>37811.0</v>
+        <v>15536.0</v>
       </c>
       <c r="E13" t="n">
         <v>32748.0</v>
       </c>
       <c r="F13" t="n">
-        <v>93.0</v>
+        <v>42.0</v>
       </c>
       <c r="G13" t="n">
-        <v>19909.0</v>
+        <v>17820.0</v>
       </c>
     </row>
     <row r="14">
@@ -390,19 +390,19 @@
         <v>32352.0</v>
       </c>
       <c r="C14" t="n">
-        <v>243.0</v>
+        <v>108.0</v>
       </c>
       <c r="D14" t="n">
-        <v>5667.0</v>
+        <v>89010.0</v>
       </c>
       <c r="E14" t="n">
         <v>32352.0</v>
       </c>
       <c r="F14" t="n">
-        <v>132.0</v>
+        <v>59.0</v>
       </c>
       <c r="G14" t="n">
-        <v>57722.0</v>
+        <v>55741.0</v>
       </c>
     </row>
     <row r="15">
@@ -413,19 +413,19 @@
         <v>61440.0</v>
       </c>
       <c r="C15" t="n">
-        <v>147.0</v>
+        <v>168.0</v>
       </c>
       <c r="D15" t="n">
-        <v>65041.0</v>
+        <v>86028.0</v>
       </c>
       <c r="E15" t="n">
         <v>61440.0</v>
       </c>
       <c r="F15" t="n">
-        <v>97.0</v>
+        <v>88.0</v>
       </c>
       <c r="G15" t="n">
-        <v>25914.0</v>
+        <v>55014.0</v>
       </c>
     </row>
     <row r="16">
@@ -436,19 +436,19 @@
         <v>29532.0</v>
       </c>
       <c r="C16" t="n">
-        <v>267.0</v>
+        <v>208.0</v>
       </c>
       <c r="D16" t="n">
-        <v>36293.0</v>
+        <v>77731.0</v>
       </c>
       <c r="E16" t="n">
         <v>29532.0</v>
       </c>
       <c r="F16" t="n">
-        <v>100.0</v>
+        <v>124.0</v>
       </c>
       <c r="G16" t="n">
-        <v>55220.0</v>
+        <v>36815.0</v>
       </c>
     </row>
     <row r="17">
@@ -459,19 +459,19 @@
         <v>46320.0</v>
       </c>
       <c r="C17" t="n">
-        <v>284.0</v>
+        <v>224.0</v>
       </c>
       <c r="D17" t="n">
-        <v>38848.0</v>
+        <v>41385.0</v>
       </c>
       <c r="E17" t="n">
         <v>46320.0</v>
       </c>
       <c r="F17" t="n">
-        <v>163.0</v>
+        <v>144.0</v>
       </c>
       <c r="G17" t="n">
-        <v>47000.0</v>
+        <v>51273.0</v>
       </c>
     </row>
   </sheetData>

--- a/output/excelOut_datapoints.xlsx
+++ b/output/excelOut_datapoints.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherleung/IdeaProjects/CSCI570_Final_Project/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF3533A-ECC1-E74A-9CEF-4C913B004ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5FF501-130D-EB43-940C-7F422CA51EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11320" yWindow="640" windowWidth="20960" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7840" yWindow="500" windowWidth="20960" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequence Alignment Algorithms" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Sequence Alignment Algorithms'!$A$2:$A$17</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sequence Alignment Algorithms'!$D$2:$D$17</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">'Sequence Alignment Algorithms'!$A$2:$A$17</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">'Sequence Alignment Algorithms'!$D$2:$D$17</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Sequence Alignment Algorithms'!$C$2:$C$17</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Sequence Alignment Algorithms'!$F$2:$F$17</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">'Sequence Alignment Algorithms'!$A$2:$A$17</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">'Sequence Alignment Algorithms'!$C$2:$C$17</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">'Sequence Alignment Algorithms'!$F$2:$F$17</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -116,6 +118,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>M+N vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Utilization (extras)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -180,10 +212,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Sequence Alignment Algorithms'!$A$2:$A$17</c:f>
+              <c:f>'Sequence Alignment Algorithms'!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>16</c:v>
                 </c:pt>
@@ -231,16 +263,31 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>3968</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6144</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12288</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18432</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Sequence Alignment Algorithms'!$D$2:$D$17</c:f>
+              <c:f>'Sequence Alignment Algorithms'!$D$2:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>153.38400000000001</c:v>
                 </c:pt>
@@ -288,6 +335,21 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>67198.959999999992</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32582.567999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>81910.959999999992</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>123146.33600000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>48422.351999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>107800.992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -328,10 +390,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Sequence Alignment Algorithms'!$A$2:$A$17</c:f>
+              <c:f>'Sequence Alignment Algorithms'!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>16</c:v>
                 </c:pt>
@@ -379,16 +441,31 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>3968</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6144</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12288</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18432</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Sequence Alignment Algorithms'!$G$2:$G$17</c:f>
+              <c:f>'Sequence Alignment Algorithms'!$G$2:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>153.38400000000001</c:v>
                 </c:pt>
@@ -436,6 +513,21 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44189.456000000006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>200851.32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>482478.47199999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>587481.576</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>294012.38399999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2156084.9279999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -627,7 +719,1230 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>M+N vs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Utilization</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sequence Alignment Algorithms'!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3584</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3968</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sequence Alignment Algorithms'!$D$2:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>153.38400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>268.35999999999967</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>153.38400000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>460.10400000000027</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1840.7039999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3939.7839999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6753.8959999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6674.8879999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5394.2640000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7984.0720000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14676.280000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44957.407999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17859.728000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>82862.495999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>66119.16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>67198.959999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-32A3-1C4D-B752-631DAAD480E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sequence Alignment Algorithms'!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3584</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3968</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sequence Alignment Algorithms'!$G$2:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>153.38400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>259.91200000000026</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>153.38400000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>306.7440000000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1128.1039999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2252.5599999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3999.4800000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8752.6160000000018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2860.0559999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16359.784</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22434.296000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16853.88</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14689.240000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24882.480000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>64657.263999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44189.456000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-32A3-1C4D-B752-631DAAD480E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1171967984"/>
+        <c:axId val="1171969632"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1171967984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1171969632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1171969632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1171967984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>M+N</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Vs Time</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sequence Alignment Algorithms'!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3584</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3968</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sequence Alignment Algorithms'!$C$2:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.1438089907169342</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.101108998060226</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1055389940738678</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1359500288963318</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.827668011188507</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29.634878009557724</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.862953990697861</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.813572019338608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.753908008337021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.055492997169495</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.715916991233826</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>122.73511299490929</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>145.1632159948349</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140.98831498622894</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>195.9290460050106</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>269.60476499795914</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C038-1141-BE1E-1935815C59E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sequence Alignment Algorithms'!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3584</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3968</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sequence Alignment Algorithms'!$F$2:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.14080199599266052</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2144140005111694</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96289798617362976</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9314630031585693</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8855690062046051</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.766167998313904</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18.178306996822357</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.2952370047569275</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.16772198677063</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.7046329975128174</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>69.146445989608765</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>96.233792006969452</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>105.38964301347733</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>99.806933999061584</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>190.69299998879433</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150.31185200810432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C038-1141-BE1E-1935815C59E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1172270224"/>
+        <c:axId val="1172257760"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1172270224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1172257760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1172257760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1172270224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1183,20 +2498,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>654050</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>560233</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>312583</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>92008</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1216,6 +3563,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>368841</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>87548</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>212117</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>182663</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0478E2AD-4D62-ADD9-76F6-389AC401BACB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>159426</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>168612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2703</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>74578</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{542E08EB-841F-C658-73B5-278DCB947CC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1523,8 +3942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G3"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
